--- a/biology/Botanique/Véronique_fausse_pâquerette/Véronique_fausse_pâquerette.xlsx
+++ b/biology/Botanique/Véronique_fausse_pâquerette/Véronique_fausse_pâquerette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_fausse_p%C3%A2querette</t>
+          <t>Véronique_fausse_pâquerette</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Veronica bellidioides
-La véronique fausse pâquerette (Veronica bellidioides) est une petite plante herbacée vivace à fleurs bleues appartenant au genre Veronica et à la famille les Scrofulariacées dans la classification classique de Cronquist (1981)[1] et actuellement à celle des Plantaginacées dans la classification phylogénétique.
+La véronique fausse pâquerette (Veronica bellidioides) est une petite plante herbacée vivace à fleurs bleues appartenant au genre Veronica et à la famille les Scrofulariacées dans la classification classique de Cronquist (1981) et actuellement à celle des Plantaginacées dans la classification phylogénétique.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_fausse_p%C3%A2querette</t>
+          <t>Véronique_fausse_pâquerette</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante haute de 5 à 20 cm, à la tige poilue, collante dans le haut. Les feuilles de la base, disposées en rosette, ressemblent à celles de la pâquerette.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_fausse_p%C3%A2querette</t>
+          <t>Véronique_fausse_pâquerette</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Montagnes d'Europe centrale et méridionale. En France : Alpes et Pyrénées.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_fausse_p%C3%A2querette</t>
+          <t>Véronique_fausse_pâquerette</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses, pâturages secs et rocailleux, aussi sous des arbustes nains. Sols acides, siliceux (espèce calcifuge). Altitude : de 1 700 à 3 000 m.
 </t>
